--- a/biology/Botanique/Cryptista/Cryptista.xlsx
+++ b/biology/Botanique/Cryptista/Cryptista.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cryptista sont un embranchement d'eucaryotes unicellulaires du règne des Chromista.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (24 août 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (24 août 2022) :
 Cryptophyceae F.E.Fritsch, 1927
 Goniomonadea Cavalier-Smith, 1993</t>
         </is>
@@ -595,10 +613,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cryptista Cavalier-Smith, 1989[1].
-Le taxon Cryptista a pour synonyme Cryptophyta Pascher, 1914[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cryptista Cavalier-Smith, 1989.
+Le taxon Cryptista a pour synonyme Cryptophyta Pascher, 1914,.
 </t>
         </is>
       </c>
